--- a/timesheet-template.xlsx
+++ b/timesheet-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tntok\personal\capstone\bison-timesheets\tyto8880\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Classes\Capstone\Project\GitRepo\bison-timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD78A9A7-BE08-486C-BE79-0866799267FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11067EB-CA1C-41AE-91A8-BBFC04BDD647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="1410" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="2100" windowWidth="21600" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Team Meeting</t>
-  </si>
-  <si>
-    <t>Tyler Tokumoto</t>
   </si>
   <si>
     <t>BI #1 (BISON)</t>
@@ -519,7 +516,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,9 +532,7 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="10"/>
@@ -551,7 +546,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
